--- a/seguimiento/ProduccionDigital/SegDigital_MA_09_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_MA_09_01_CO.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Matematicas\seguimiento\ProduccionDigital\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21713" windowHeight="9711"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="47540" windowHeight="25880"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -225,6 +223,9 @@
   </si>
   <si>
     <t>REC240</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -304,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,8 +336,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -346,29 +353,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -376,23 +383,60 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -400,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -426,9 +470,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -441,6 +482,12 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,17 +497,38 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,7 +590,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -557,7 +625,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -734,7 +802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -744,39 +812,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F29" sqref="F29"/>
+      <selection pane="topRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.53125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.3984375" style="1" customWidth="1"/>
-    <col min="5" max="7" width="12.06640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.6640625" style="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.100000000000001" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:14" ht="18">
+      <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="G2" s="14" t="s">
+    <row r="2" spans="1:14">
+      <c r="G2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" ht="21.15" x14ac:dyDescent="0.45">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="22">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -795,19 +863,19 @@
       <c r="F3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -816,55 +884,57 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="23">
         <v>42090.676388888889</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="23">
         <v>42090.680555555555</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="28"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="10" t="s">
+      <c r="C5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -873,42 +943,42 @@
       <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="10" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="10" t="s">
+      <c r="C7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -917,42 +987,44 @@
       <c r="D8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="10" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="10" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -961,42 +1033,44 @@
       <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="10" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="10" t="s">
+      <c r="D11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1005,42 +1079,42 @@
       <c r="D12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="10" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="10" t="s">
+      <c r="D13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1049,42 +1123,42 @@
       <c r="D14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="10" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="19"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="10" t="s">
+      <c r="D15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1093,42 +1167,44 @@
       <c r="D16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="10" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="19"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="10" t="s">
+      <c r="D17" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1137,42 +1213,42 @@
       <c r="D18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="10" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="19"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="10" t="s">
+      <c r="C19" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -1181,42 +1257,42 @@
       <c r="D20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="19"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="10" t="s">
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="10" t="s">
+      <c r="C21" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="18"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1225,42 +1301,42 @@
       <c r="D22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="19"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="10" t="s">
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="19"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="10" t="s">
+      <c r="C23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="18"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -1269,42 +1345,44 @@
       <c r="D24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="19"/>
-    </row>
-    <row r="25" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A25" s="10" t="s">
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25" spans="1:12" ht="24">
+      <c r="A25" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="19"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="10" t="s">
+      <c r="C25" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -1313,42 +1391,44 @@
       <c r="D26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="19"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="10" t="s">
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="19"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" s="10" t="s">
+      <c r="C27" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -1357,28 +1437,32 @@
       <c r="D28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="19"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="E29" s="20"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="E29" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
+    <mergeCell ref="L4:L28"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:E28"/>
     <mergeCell ref="F4:F28"/>
-    <mergeCell ref="K4:K28"/>
-    <mergeCell ref="L4:L28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/seguimiento/ProduccionDigital/SegDigital_MA_09_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_MA_09_01_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="0" windowWidth="37260" windowHeight="25880"/>
+    <workbookView xWindow="2560" yWindow="0" windowWidth="37260" windowHeight="25880"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -830,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -842,7 +842,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -933,12 +933,8 @@
       <c r="H4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>67</v>
-      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="13"/>
       <c r="L4" s="20"/>
     </row>
@@ -963,8 +959,12 @@
       <c r="H5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="I5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="K5" s="18"/>
       <c r="L5" s="20"/>
     </row>

--- a/seguimiento/ProduccionDigital/SegDigital_MA_09_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_MA_09_01_CO.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PedroAntonio\Documents\AulaPlaneta\GitHub\Matematicas\seguimiento\ProduccionDigital\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="0" windowWidth="37260" windowHeight="25880"/>
+    <workbookView xWindow="2565" yWindow="0" windowWidth="37260" windowHeight="25875"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="68">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -830,7 +835,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -840,22 +845,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="175" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I4" sqref="I4"/>
+      <selection pane="topRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
@@ -863,7 +868,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G2" s="21" t="s">
         <v>35</v>
       </c>
@@ -872,7 +877,7 @@
       <c r="J2" s="22"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" ht="22">
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -912,7 +917,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -938,7 +943,7 @@
       <c r="K4" s="13"/>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -968,7 +973,7 @@
       <c r="K5" s="18"/>
       <c r="L5" s="20"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -989,12 +994,16 @@
       <c r="H6" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="I6" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="K6" s="13"/>
       <c r="L6" s="20"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
@@ -1015,12 +1024,16 @@
       <c r="H7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="I7" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="K7" s="18"/>
       <c r="L7" s="20"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -1041,12 +1054,16 @@
       <c r="H8" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="I8" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="K8" s="13"/>
       <c r="L8" s="20"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
@@ -1076,7 +1093,7 @@
       <c r="K9" s="18"/>
       <c r="L9" s="20"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1123,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="20"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
@@ -1130,7 +1147,7 @@
       <c r="K11" s="18"/>
       <c r="L11" s="20"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -1151,12 +1168,16 @@
       <c r="H12" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="I12" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="K12" s="13"/>
       <c r="L12" s="20"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
@@ -1180,7 +1201,7 @@
       <c r="K13" s="18"/>
       <c r="L13" s="20"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -1204,7 +1225,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="20"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
@@ -1228,7 +1249,7 @@
       <c r="K15" s="18"/>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1258,7 +1279,7 @@
       <c r="K16" s="13"/>
       <c r="L16" s="20"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
@@ -1282,7 +1303,7 @@
       <c r="K17" s="18"/>
       <c r="L17" s="20"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
@@ -1306,7 +1327,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="20"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>15</v>
       </c>
@@ -1327,12 +1348,16 @@
       <c r="H19" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="I19" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="K19" s="18"/>
       <c r="L19" s="20"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
@@ -1353,12 +1378,16 @@
       <c r="H20" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="I20" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="K20" s="13"/>
       <c r="L20" s="20"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>17</v>
       </c>
@@ -1384,7 +1413,7 @@
       <c r="K21" s="18"/>
       <c r="L21" s="20"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -1410,7 +1439,7 @@
       <c r="K22" s="13"/>
       <c r="L22" s="20"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>19</v>
       </c>
@@ -1436,7 +1465,7 @@
       <c r="K23" s="18"/>
       <c r="L23" s="20"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>20</v>
       </c>
@@ -1466,7 +1495,7 @@
       <c r="K24" s="13"/>
       <c r="L24" s="20"/>
     </row>
-    <row r="25" spans="1:12" ht="24">
+    <row r="25" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>63</v>
       </c>
@@ -1492,7 +1521,7 @@
       <c r="K25" s="18"/>
       <c r="L25" s="20"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>64</v>
       </c>
@@ -1518,7 +1547,7 @@
       <c r="K26" s="13"/>
       <c r="L26" s="20"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>65</v>
       </c>
@@ -1548,7 +1577,7 @@
       <c r="K27" s="18"/>
       <c r="L27" s="20"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>66</v>
       </c>
@@ -1574,7 +1603,7 @@
       <c r="K28" s="13"/>
       <c r="L28" s="20"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E29" s="14"/>
     </row>
   </sheetData>

--- a/seguimiento/ProduccionDigital/SegDigital_MA_09_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_MA_09_01_CO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="69">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>no necesita edición</t>
   </si>
 </sst>
 </file>
@@ -845,9 +848,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="175" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J20" sqref="J20"/>
+      <selection pane="topRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +860,8 @@
     <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="1"/>
+    <col min="8" max="8" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
@@ -1141,7 +1145,9 @@
       <c r="G11" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="18"/>
@@ -1195,7 +1201,9 @@
       <c r="G13" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="18"/>
@@ -1219,7 +1227,9 @@
       <c r="G14" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="19"/>
+      <c r="H14" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="13"/>
@@ -1243,7 +1253,9 @@
       <c r="G15" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="18"/>
@@ -1297,7 +1309,9 @@
       <c r="G17" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="18"/>
@@ -1321,7 +1335,9 @@
       <c r="G18" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="13"/>
@@ -1408,8 +1424,12 @@
       <c r="H21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="I21" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="K21" s="18"/>
       <c r="L21" s="20"/>
     </row>
@@ -1434,8 +1454,12 @@
       <c r="H22" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="I22" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="K22" s="13"/>
       <c r="L22" s="20"/>
     </row>
@@ -1460,8 +1484,12 @@
       <c r="H23" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="I23" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="K23" s="18"/>
       <c r="L23" s="20"/>
     </row>
@@ -1516,8 +1544,12 @@
       <c r="H25" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="I25" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="K25" s="18"/>
       <c r="L25" s="20"/>
     </row>
@@ -1542,8 +1574,12 @@
       <c r="H26" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
+      <c r="I26" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="K26" s="13"/>
       <c r="L26" s="20"/>
     </row>
@@ -1598,8 +1634,12 @@
       <c r="H28" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
+      <c r="I28" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="K28" s="13"/>
       <c r="L28" s="20"/>
     </row>

--- a/seguimiento/ProduccionDigital/SegDigital_MA_09_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_MA_09_01_CO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="69">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -850,7 +850,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="175" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H12" sqref="H12"/>
+      <selection pane="topRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,8 +942,12 @@
       <c r="H4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="I4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="K4" s="13"/>
       <c r="L4" s="20"/>
     </row>
